--- a/data/mistakes/annotated/stanza_lowercase_lemma_mistakes_annotated.xlsx
+++ b/data/mistakes/annotated/stanza_lowercase_lemma_mistakes_annotated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27f43607ae8ba673/Dokumenty/GitHub/WSMF-presentation/data/mistakes/annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="449" documentId="11_78116FFF415CBA0E62355476585DCE3A87457029" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D627455-E178-42BF-877F-BF9D249DA937}"/>
+  <xr:revisionPtr revIDLastSave="455" documentId="11_78116FFF415CBA0E62355476585DCE3A87457029" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B35BD4C4-683E-449E-AC0E-F88DCFBFB546}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4259,7 +4259,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4277,6 +4277,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4566,8 +4570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="F442" sqref="F442"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4932,7 +4936,7 @@
         <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6692,7 +6696,7 @@
         <v>368</v>
       </c>
       <c r="F106" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -7412,7 +7416,7 @@
         <v>466</v>
       </c>
       <c r="F142" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -9052,7 +9056,7 @@
         <v>67</v>
       </c>
       <c r="F224" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -12352,7 +12356,7 @@
         <v>1218</v>
       </c>
       <c r="F389" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -13232,7 +13236,7 @@
         <v>1356</v>
       </c>
       <c r="F433" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
